--- a/Project2-Shiny/JieleiZhu/data/race_data.xlsx
+++ b/Project2-Shiny/JieleiZhu/data/race_data.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13120" windowHeight="6100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="7">
   <si>
     <t>Race</t>
   </si>
@@ -21,9 +28,6 @@
   </si>
   <si>
     <t>Median</t>
-  </si>
-  <si>
-    <t>Mean</t>
   </si>
   <si>
     <t>Asian</t>
@@ -42,8 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -79,6 +82,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -361,13 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -377,572 +383,454 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>2005</v>
       </c>
-      <c r="C2" t="n">
-        <v>39719.6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53182.3</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>39719.599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>2006</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>42904.6</v>
       </c>
-      <c r="D3" t="n">
-        <v>56908.4</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>2007</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>43387</v>
       </c>
-      <c r="D4" t="n">
-        <v>55222.9</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>2008</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>45053.9</v>
       </c>
-      <c r="D5" t="n">
-        <v>57653.8</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>2009</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>45815.1</v>
       </c>
-      <c r="D6" t="n">
-        <v>62596.8</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>2010</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>45303.9</v>
       </c>
-      <c r="D7" t="n">
-        <v>57246.6</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>2011</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>46747.6</v>
       </c>
-      <c r="D8" t="n">
-        <v>58444.1</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>2012</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>49768.6037</v>
       </c>
-      <c r="D9" t="n">
-        <v>64756.3944</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>2013</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>48362.1</v>
       </c>
-      <c r="D10" t="n">
-        <v>64012.6</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>2014</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>51426.6</v>
       </c>
-      <c r="D11" t="n">
-        <v>67003.1</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12">
         <v>2005</v>
       </c>
-      <c r="C12" t="n">
-        <v>32982.8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>39376</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12">
+        <v>32982.800000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13">
         <v>2006</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>33171.1</v>
       </c>
-      <c r="D13" t="n">
-        <v>40933.7</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14">
         <v>2007</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>34799.4</v>
       </c>
-      <c r="D14" t="n">
-        <v>41737.1</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15">
         <v>2008</v>
       </c>
-      <c r="C15" t="n">
-        <v>36187.2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>42957.5</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="C15">
+        <v>36187.199999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16">
         <v>2009</v>
       </c>
-      <c r="C16" t="n">
-        <v>36465.8</v>
-      </c>
-      <c r="D16" t="n">
-        <v>43663.3</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>36465.800000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17">
         <v>2010</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>36798.5</v>
       </c>
-      <c r="D17" t="n">
-        <v>44610.5</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18">
         <v>2011</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>37965.4</v>
       </c>
-      <c r="D18" t="n">
-        <v>47674.1</v>
-      </c>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19">
         <v>2012</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>37865.6587</v>
       </c>
-      <c r="D19" t="n">
-        <v>45640.1915</v>
-      </c>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20">
         <v>2013</v>
       </c>
-      <c r="C20" t="n">
-        <v>38959.3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>48486.4</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20">
+        <v>38959.300000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21">
         <v>2014</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>38948.9</v>
       </c>
-      <c r="D21" t="n">
-        <v>49233.5</v>
-      </c>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22">
         <v>2005</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>25998</v>
       </c>
-      <c r="D22" t="n">
-        <v>33555.5</v>
-      </c>
-    </row>
-    <row r="23">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23">
         <v>2006</v>
       </c>
-      <c r="C23" t="n">
-        <v>27426.4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>34797.8</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="C23">
+        <v>27426.400000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24">
         <v>2007</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>28503.4</v>
       </c>
-      <c r="D24" t="n">
-        <v>35598.8</v>
-      </c>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25">
         <v>2008</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>29133.4</v>
       </c>
-      <c r="D25" t="n">
-        <v>36268.9</v>
-      </c>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26">
         <v>2009</v>
       </c>
-      <c r="C26" t="n">
-        <v>29750.4</v>
-      </c>
-      <c r="D26" t="n">
-        <v>37828</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="C26">
+        <v>29750.400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27">
         <v>2010</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>30553.8</v>
       </c>
-      <c r="D27" t="n">
-        <v>37586.7</v>
-      </c>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28">
         <v>2011</v>
       </c>
-      <c r="C28" t="n">
-        <v>31008.4</v>
-      </c>
-      <c r="D28" t="n">
-        <v>38393.2</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="C28">
+        <v>31008.400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29">
         <v>2012</v>
       </c>
-      <c r="C29" t="n">
-        <v>31431.0267</v>
-      </c>
-      <c r="D29" t="n">
-        <v>39521.3751</v>
-      </c>
-    </row>
-    <row r="30">
+      <c r="C29">
+        <v>31431.026699999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30">
         <v>2013</v>
       </c>
-      <c r="C30" t="n">
-        <v>32093.6</v>
-      </c>
-      <c r="D30" t="n">
-        <v>40938</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="C30">
+        <v>32093.599999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31">
         <v>2014</v>
       </c>
-      <c r="C31" t="n">
-        <v>32820.2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>41501.8</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="C31">
+        <v>32820.199999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32">
         <v>2005</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>39709.9</v>
       </c>
-      <c r="D32" t="n">
-        <v>52309.5</v>
-      </c>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33">
         <v>2006</v>
       </c>
-      <c r="C33" t="n">
-        <v>41492.4</v>
-      </c>
-      <c r="D33" t="n">
-        <v>54293.8</v>
-      </c>
-    </row>
-    <row r="34">
+      <c r="C33">
+        <v>41492.400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="B34">
         <v>2007</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>43265.2</v>
       </c>
-      <c r="D34" t="n">
-        <v>54102.9</v>
-      </c>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="B35">
         <v>2008</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>44414.5</v>
       </c>
-      <c r="D35" t="n">
-        <v>57221.9</v>
-      </c>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="B36">
         <v>2009</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>44832.9</v>
       </c>
-      <c r="D36" t="n">
-        <v>58302.9</v>
-      </c>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37">
         <v>2010</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>46723.1</v>
       </c>
-      <c r="D37" t="n">
-        <v>59793.8</v>
-      </c>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38">
         <v>2011</v>
       </c>
-      <c r="C38" t="n">
-        <v>46402.4</v>
-      </c>
-      <c r="D38" t="n">
-        <v>61223</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="C38">
+        <v>46402.400000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+      <c r="B39">
         <v>2012</v>
       </c>
-      <c r="C39" t="n">
-        <v>47359.479</v>
-      </c>
-      <c r="D39" t="n">
-        <v>61695.1255</v>
-      </c>
-    </row>
-    <row r="40">
+      <c r="C39">
+        <v>47359.478999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="B40">
         <v>2013</v>
       </c>
-      <c r="C40" t="n">
-        <v>47930.4</v>
-      </c>
-      <c r="D40" t="n">
-        <v>62817.9</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="C40">
+        <v>47930.400000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41">
         <v>2014</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>49168.2</v>
-      </c>
-      <c r="D41" t="n">
-        <v>64886.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>